--- a/test.xlsx
+++ b/test.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/user/Documents/2019-20/GitHub/PhoneNumberScraper/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3DC76ACB-4398-DF42-9AE2-8C334935A8C0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FA98FAC9-DDC8-EB47-A068-3A051D19F0C6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="380" yWindow="460" windowWidth="28040" windowHeight="17040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -407,7 +407,7 @@
   <dimension ref="A1:E4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E4" sqref="E2:E4"/>
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
